--- a/microcode/eeprom_organisation.xlsx
+++ b/microcode/eeprom_organisation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lucad\My Files\linux\6CCS3PRJ\microcode\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B016AFD-6E03-4740-AA19-803389853CF2}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB01E344-AB14-4DD8-A0A8-10AAD2EFCE6A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1065" windowWidth="23055" windowHeight="13905" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="EEprom Organisation" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
   <si>
     <t>D0</t>
   </si>
@@ -93,9 +93,6 @@
     <t>R/W</t>
   </si>
   <si>
-    <t>F</t>
-  </si>
-  <si>
     <t>HLT</t>
   </si>
   <si>
@@ -148,6 +145,81 @@
   </si>
   <si>
     <t>IO</t>
+  </si>
+  <si>
+    <t>FI</t>
+  </si>
+  <si>
+    <t>EEPROM Address Layout</t>
+  </si>
+  <si>
+    <t>A0</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>A5</t>
+  </si>
+  <si>
+    <t>A6</t>
+  </si>
+  <si>
+    <t>A7</t>
+  </si>
+  <si>
+    <t>A8</t>
+  </si>
+  <si>
+    <t>A9</t>
+  </si>
+  <si>
+    <t>A10</t>
+  </si>
+  <si>
+    <t>A11</t>
+  </si>
+  <si>
+    <t>Time TX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time TX </t>
+  </si>
+  <si>
+    <t>CF</t>
+  </si>
+  <si>
+    <t>ZF</t>
+  </si>
+  <si>
+    <t>PF</t>
+  </si>
+  <si>
+    <t>IR0</t>
+  </si>
+  <si>
+    <t>IR1</t>
+  </si>
+  <si>
+    <t>IR2</t>
+  </si>
+  <si>
+    <t>IR3</t>
+  </si>
+  <si>
+    <t>IR4</t>
+  </si>
+  <si>
+    <t>IR5</t>
   </si>
 </sst>
 </file>
@@ -489,7 +561,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I5" sqref="I5"/>
@@ -501,7 +573,7 @@
     <col min="2" max="9" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -530,7 +602,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -559,7 +631,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -579,71 +651,150 @@
         <v>21</v>
       </c>
       <c r="G3" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
-        <v>24</v>
-      </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="H4" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="I4" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="H5" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>48</v>
+      </c>
+      <c r="I8" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>51</v>
+      </c>
+      <c r="L8" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G9" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" t="s">
+        <v>59</v>
+      </c>
+      <c r="I9" t="s">
+        <v>60</v>
+      </c>
+      <c r="J9" t="s">
+        <v>61</v>
+      </c>
+      <c r="K9" t="s">
+        <v>62</v>
+      </c>
+      <c r="L9" t="s">
+        <v>63</v>
+      </c>
+      <c r="M9" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
